--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H2">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I2">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J2">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="N2">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="O2">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="P2">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="Q2">
-        <v>123.6865818847434</v>
+        <v>93.426195080181</v>
       </c>
       <c r="R2">
-        <v>1113.17923696269</v>
+        <v>840.8357557216291</v>
       </c>
       <c r="S2">
-        <v>0.08670278204384493</v>
+        <v>0.0430653539955332</v>
       </c>
       <c r="T2">
-        <v>0.08670278204384493</v>
+        <v>0.04306535399553321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H3">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I3">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J3">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>100.286516</v>
       </c>
       <c r="O3">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="P3">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="Q3">
-        <v>279.1832861433734</v>
+        <v>279.1488878683854</v>
       </c>
       <c r="R3">
-        <v>2512.64957529036</v>
+        <v>2512.339990815468</v>
       </c>
       <c r="S3">
-        <v>0.1957040710473307</v>
+        <v>0.1286753213399529</v>
       </c>
       <c r="T3">
-        <v>0.1957040710473307</v>
+        <v>0.1286753213399529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H4">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I4">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J4">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="N4">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="O4">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="P4">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="Q4">
-        <v>93.94582266088332</v>
+        <v>265.3970248871423</v>
       </c>
       <c r="R4">
-        <v>845.5124039479498</v>
+        <v>2388.573223984281</v>
       </c>
       <c r="S4">
-        <v>0.0658548733579402</v>
+        <v>0.1223363192337766</v>
       </c>
       <c r="T4">
-        <v>0.0658548733579402</v>
+        <v>0.1223363192337767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H5">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I5">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J5">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="N5">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="O5">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="P5">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="Q5">
-        <v>20.96168349098667</v>
+        <v>31.69989229958166</v>
       </c>
       <c r="R5">
-        <v>188.65515141888</v>
+        <v>285.299030696235</v>
       </c>
       <c r="S5">
-        <v>0.01469388390637755</v>
+        <v>0.01461225176012077</v>
       </c>
       <c r="T5">
-        <v>0.01469388390637755</v>
+        <v>0.01461225176012077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.650088</v>
       </c>
       <c r="I6">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J6">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="N6">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="O6">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="P6">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="Q6">
-        <v>166.1190396871813</v>
+        <v>125.492854732536</v>
       </c>
       <c r="R6">
-        <v>1495.071357184632</v>
+        <v>1129.435692592824</v>
       </c>
       <c r="S6">
-        <v>0.1164474162989794</v>
+        <v>0.05784666932361403</v>
       </c>
       <c r="T6">
-        <v>0.1164474162989794</v>
+        <v>0.05784666932361403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.650088</v>
       </c>
       <c r="I7">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J7">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>100.286516</v>
       </c>
       <c r="O7">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="P7">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="Q7">
         <v>374.9611209570454</v>
@@ -883,10 +883,10 @@
         <v>3374.650088613408</v>
       </c>
       <c r="S7">
-        <v>0.2628431625311539</v>
+        <v>0.1728405335860951</v>
       </c>
       <c r="T7">
-        <v>0.262843162531154</v>
+        <v>0.1728405335860951</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.650088</v>
       </c>
       <c r="I8">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J8">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="N8">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="O8">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="P8">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="Q8">
-        <v>126.1752859949733</v>
+        <v>356.4892080002373</v>
       </c>
       <c r="R8">
-        <v>1135.57757395476</v>
+        <v>3208.402872002136</v>
       </c>
       <c r="S8">
-        <v>0.08844733320495599</v>
+        <v>0.1643257966884092</v>
       </c>
       <c r="T8">
-        <v>0.088447333204956</v>
+        <v>0.1643257966884093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>33.650088</v>
       </c>
       <c r="I9">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J9">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="N9">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="O9">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="P9">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="Q9">
-        <v>28.15288997956266</v>
+        <v>42.58024182590666</v>
       </c>
       <c r="R9">
-        <v>253.376009816064</v>
+        <v>383.2221764331599</v>
       </c>
       <c r="S9">
-        <v>0.01973483175464367</v>
+        <v>0.01962761285391445</v>
       </c>
       <c r="T9">
-        <v>0.01973483175464367</v>
+        <v>0.01962761285391445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H10">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I10">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J10">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.80997966666667</v>
+        <v>11.188041</v>
       </c>
       <c r="N10">
-        <v>44.429939</v>
+        <v>33.564123</v>
       </c>
       <c r="O10">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="P10">
-        <v>0.2388798507865045</v>
+        <v>0.1395103797998223</v>
       </c>
       <c r="Q10">
-        <v>50.97043576357078</v>
+        <v>83.735468253946</v>
       </c>
       <c r="R10">
-        <v>458.733921872137</v>
+        <v>753.6192142855141</v>
       </c>
       <c r="S10">
-        <v>0.03572965244368024</v>
+        <v>0.03859835648067506</v>
       </c>
       <c r="T10">
-        <v>0.03572965244368024</v>
+        <v>0.03859835648067507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H11">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I11">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J11">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>100.286516</v>
       </c>
       <c r="O11">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730721</v>
       </c>
       <c r="P11">
-        <v>0.5391956081231262</v>
+        <v>0.4168441980730722</v>
       </c>
       <c r="Q11">
-        <v>115.0496160197365</v>
+        <v>250.1938863952098</v>
       </c>
       <c r="R11">
-        <v>1035.446544177628</v>
+        <v>2251.744977556888</v>
       </c>
       <c r="S11">
-        <v>0.08064837454464156</v>
+        <v>0.1153283431470241</v>
       </c>
       <c r="T11">
-        <v>0.08064837454464156</v>
+        <v>0.1153283431470241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H12">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I12">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J12">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.24888166666666</v>
+        <v>31.78201566666667</v>
       </c>
       <c r="N12">
-        <v>33.74664499999999</v>
+        <v>95.346047</v>
       </c>
       <c r="O12">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847458</v>
       </c>
       <c r="P12">
-        <v>0.1814405714611748</v>
+        <v>0.3963089763847459</v>
       </c>
       <c r="Q12">
-        <v>38.71446236305944</v>
+        <v>237.8684493471718</v>
       </c>
       <c r="R12">
-        <v>348.4301612675349</v>
+        <v>2140.816044124546</v>
       </c>
       <c r="S12">
-        <v>0.0271383648982786</v>
+        <v>0.1096468604625599</v>
       </c>
       <c r="T12">
-        <v>0.0271383648982786</v>
+        <v>0.10964686046256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H13">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I13">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J13">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.509909333333333</v>
+        <v>3.796148333333333</v>
       </c>
       <c r="N13">
-        <v>7.529728</v>
+        <v>11.388445</v>
       </c>
       <c r="O13">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="P13">
-        <v>0.04048396962919452</v>
+        <v>0.04733644574235969</v>
       </c>
       <c r="Q13">
-        <v>8.63817340242489</v>
+        <v>28.41178882461222</v>
       </c>
       <c r="R13">
-        <v>77.743560621824</v>
+        <v>255.70609942151</v>
       </c>
       <c r="S13">
-        <v>0.006055253968173297</v>
+        <v>0.01309658112832447</v>
       </c>
       <c r="T13">
-        <v>0.006055253968173297</v>
+        <v>0.01309658112832448</v>
       </c>
     </row>
   </sheetData>
